--- a/biology/Botanique/Jardin_botanique_de_l'université_de_Rennes/Jardin_botanique_de_l'université_de_Rennes.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_l'université_de_Rennes/Jardin_botanique_de_l'université_de_Rennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Rennes</t>
+          <t>Jardin_botanique_de_l'université_de_Rennes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de l’université de Rennes est un jardin botanique géré par l’université de Rennes 1, dans la ville française éponyme.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Rennes</t>
+          <t>Jardin_botanique_de_l'université_de_Rennes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses fonds remontent aux collections de Christophe-Paul De Robien (1698-1756), alors président du parlement de Bretagne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fonds remontent aux collections de Christophe-Paul De Robien (1698-1756), alors président du parlement de Bretagne.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Rennes</t>
+          <t>Jardin_botanique_de_l'université_de_Rennes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Serres, localisées au centre du campus de Beaulieu[2] (48° 07′ 03,75″ N, 1° 38′ 23,59″ O) et rassemblées dans les années 1960 au moment où la faculté de Science aménageait le campus[3]. Les serres sont principalement utilisées par l’unité mixte de recherche « Ecobio » (UMR 6553). Elles ont été entièrement reconstruites en 1999[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Serres, localisées au centre du campus de Beaulieu (48° 07′ 03,75″ N, 1° 38′ 23,59″ O) et rassemblées dans les années 1960 au moment où la faculté de Science aménageait le campus. Les serres sont principalement utilisées par l’unité mixte de recherche « Ecobio » (UMR 6553). Elles ont été entièrement reconstruites en 1999.
 Herbiers, qui compte 300 000 spécimens, ouvert seulement aux chercheurs.
 Modèles de plantes en bois, reçus du musée de Berlin comme compensation après la Seconde Guerre mondiale.</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Rennes</t>
+          <t>Jardin_botanique_de_l'université_de_Rennes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Université de Rennes - collections botaniques
 Université de Rennes - serres
